--- a/Timesheet(何佳林).xlsx
+++ b/Timesheet(何佳林).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkProject\FN标准工艺\Project Document\06 Project Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkProject\FASGroup\TimeSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -259,7 +259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="265">
   <si>
     <t>Name</t>
   </si>
@@ -1768,6 +1768,66 @@
   </si>
   <si>
     <t>还未全部测试完成</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>新规则与已确认的工艺路径对比功能发布到测试服务器</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>新规则与已确认的工艺路径对比功能前台与后台整合开发</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>水洗规则整理与实现</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team Meeting(PM)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>水洗规则整理与实现－－还差特殊纱比例部分</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>与用户沟通和讨论水洗规则及工艺路径跟进</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>工艺路径增加Excel导出功能</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>新规则与已确认的工艺路径对比功能开发</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>新规则与已确认的工艺路径对比功能开发</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>新规则与已确认的工艺路径对比功能开发之导出Excel</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假2小时</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>新规则与已确认的工艺路径对比功能开发之导出Excel</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>新规则与已确认的工艺路径对比功能开发之导出Excel发布</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>水洗规则整理与实现－－已实现特殊纱比例部分</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到特殊纱比例的取数路径，完善水洗规则</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -2611,7 +2671,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2684,15 +2744,9 @@
     <xf numFmtId="0" fontId="28" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="29" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="29" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2711,6 +2765,18 @@
     <xf numFmtId="9" fontId="28" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2720,6 +2786,15 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2728,27 +2803,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -3074,8 +3128,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B66" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3121,620 +3175,620 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2" s="28">
+      <c r="A2" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="26">
         <v>42758</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="25">
         <v>8</v>
       </c>
-      <c r="F2" s="30">
-        <v>1</v>
-      </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27" t="s">
+      <c r="F2" s="28">
+        <v>1</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25" t="s">
         <v>105</v>
       </c>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B3" s="28">
+      <c r="A3" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="26">
         <v>42759</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="25">
         <v>8</v>
       </c>
-      <c r="F3" s="30">
-        <v>1</v>
-      </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27" t="s">
+      <c r="F3" s="28">
+        <v>1</v>
+      </c>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25" t="s">
         <v>105</v>
       </c>
       <c r="I3" s="22"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B4" s="28">
+      <c r="A4" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="26">
         <v>42760</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="25">
         <v>8</v>
       </c>
-      <c r="F4" s="30">
-        <v>1</v>
-      </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27" t="s">
+      <c r="F4" s="28">
+        <v>1</v>
+      </c>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25" t="s">
         <v>105</v>
       </c>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B5" s="28">
+      <c r="A5" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="26">
         <v>42761</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="25">
         <v>8</v>
       </c>
-      <c r="F5" s="30">
-        <v>1</v>
-      </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27" t="s">
+      <c r="F5" s="28">
+        <v>1</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25" t="s">
         <v>105</v>
       </c>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B6" s="28">
+      <c r="A6" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="26">
         <v>42762</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B7" s="28">
+      <c r="A7" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="26">
         <v>42776</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="25">
         <v>8</v>
       </c>
-      <c r="F7" s="30">
-        <v>1</v>
-      </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27" t="s">
+      <c r="F7" s="28">
+        <v>1</v>
+      </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="22"/>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B8" s="28">
+      <c r="A8" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="26">
         <v>42779</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="25">
         <v>8</v>
       </c>
-      <c r="F8" s="30">
-        <v>1</v>
-      </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27" t="s">
+      <c r="F8" s="28">
+        <v>1</v>
+      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B9" s="28">
+      <c r="A9" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="26">
         <v>42780</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="25">
         <v>8</v>
       </c>
-      <c r="F9" s="30">
-        <v>1</v>
-      </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27" t="s">
+      <c r="F9" s="28">
+        <v>1</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25" t="s">
         <v>8</v>
       </c>
       <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B10" s="28">
+      <c r="A10" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" s="26">
         <v>42781</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="25">
         <v>8</v>
       </c>
-      <c r="F10" s="30">
-        <v>1</v>
-      </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27" t="s">
+      <c r="F10" s="28">
+        <v>1</v>
+      </c>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25" t="s">
         <v>8</v>
       </c>
       <c r="I10" s="22"/>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B11" s="28">
+      <c r="A11" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11" s="26">
         <v>42782</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="25">
         <v>8</v>
       </c>
-      <c r="F11" s="30">
-        <v>1</v>
-      </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27" t="s">
+      <c r="F11" s="28">
+        <v>1</v>
+      </c>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25" t="s">
         <v>105</v>
       </c>
       <c r="I11" s="22"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B12" s="28">
+      <c r="A12" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" s="26">
         <v>42783</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="25">
         <v>8</v>
       </c>
-      <c r="F12" s="30">
-        <v>1</v>
-      </c>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27" t="s">
+      <c r="F12" s="28">
+        <v>1</v>
+      </c>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25" t="s">
         <v>105</v>
       </c>
       <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B13" s="28">
+      <c r="A13" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="26">
         <v>42786</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="25">
         <v>8</v>
       </c>
-      <c r="F13" s="30">
-        <v>1</v>
-      </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27" t="s">
+      <c r="F13" s="28">
+        <v>1</v>
+      </c>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25" t="s">
         <v>105</v>
       </c>
       <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B14" s="28">
+      <c r="A14" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" s="26">
         <v>42787</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="25">
         <v>4</v>
       </c>
-      <c r="F14" s="30">
-        <v>1</v>
-      </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27" t="s">
+      <c r="F14" s="28">
+        <v>1</v>
+      </c>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25" t="s">
         <v>14</v>
       </c>
       <c r="I14" s="22"/>
     </row>
     <row r="15" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B15" s="28">
+      <c r="A15" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" s="26">
         <v>42787</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="25">
         <v>4</v>
       </c>
-      <c r="F15" s="30">
-        <v>1</v>
-      </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27" t="s">
+      <c r="F15" s="28">
+        <v>1</v>
+      </c>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="I15" s="25"/>
+      <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B16" s="28">
+      <c r="A16" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" s="26">
         <v>42788</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="25">
         <v>8</v>
       </c>
-      <c r="F16" s="30">
-        <v>1</v>
-      </c>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27" t="s">
+      <c r="F16" s="28">
+        <v>1</v>
+      </c>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="I16" s="25"/>
+      <c r="I16" s="24"/>
     </row>
     <row r="17" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B17" s="28">
+      <c r="A17" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="26">
         <v>42789</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="25">
         <v>1.5</v>
       </c>
-      <c r="F17" s="30">
-        <v>1</v>
-      </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27" t="s">
+      <c r="F17" s="28">
+        <v>1</v>
+      </c>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="25"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B18" s="28">
+      <c r="A18" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" s="26">
         <v>42789</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="25">
         <v>6.5</v>
       </c>
-      <c r="F18" s="30">
-        <v>1</v>
-      </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27" t="s">
+      <c r="F18" s="28">
+        <v>1</v>
+      </c>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="I18" s="25"/>
+      <c r="I18" s="24"/>
     </row>
     <row r="19" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B19" s="28">
+      <c r="A19" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" s="26">
         <v>42790</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="25">
         <v>8</v>
       </c>
-      <c r="F19" s="30">
-        <v>1</v>
-      </c>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27" t="s">
+      <c r="F19" s="28">
+        <v>1</v>
+      </c>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="25"/>
+      <c r="I19" s="24"/>
     </row>
     <row r="20" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B20" s="28">
+      <c r="A20" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B20" s="26">
         <v>42793</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="25">
         <v>6</v>
       </c>
-      <c r="F20" s="30">
-        <v>1</v>
-      </c>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27" t="s">
+      <c r="F20" s="28">
+        <v>1</v>
+      </c>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="I20" s="25"/>
+      <c r="I20" s="24"/>
     </row>
     <row r="21" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B21" s="28">
+      <c r="A21" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21" s="26">
         <v>42793</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="E21" s="27">
-        <v>1</v>
-      </c>
-      <c r="F21" s="30">
-        <v>1</v>
-      </c>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27" t="s">
+      <c r="E21" s="25">
+        <v>1</v>
+      </c>
+      <c r="F21" s="28">
+        <v>1</v>
+      </c>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="I21" s="25"/>
+      <c r="I21" s="24"/>
     </row>
     <row r="22" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B22" s="28">
+      <c r="A22" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" s="26">
         <v>42793</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="E22" s="27">
-        <v>1</v>
-      </c>
-      <c r="F22" s="30">
-        <v>1</v>
-      </c>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27" t="s">
+      <c r="E22" s="25">
+        <v>1</v>
+      </c>
+      <c r="F22" s="28">
+        <v>1</v>
+      </c>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="25"/>
+      <c r="I22" s="24"/>
     </row>
     <row r="23" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B23" s="28">
+      <c r="A23" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" s="26">
         <v>42794</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="25">
         <v>8</v>
       </c>
-      <c r="F23" s="30">
-        <v>1</v>
-      </c>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27" t="s">
+      <c r="F23" s="28">
+        <v>1</v>
+      </c>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="I23" s="25"/>
+      <c r="I23" s="24"/>
     </row>
     <row r="24" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B24" s="28">
+      <c r="A24" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" s="26">
         <v>42795</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="25">
         <v>8</v>
       </c>
-      <c r="F24" s="30">
-        <v>1</v>
-      </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27" t="s">
+      <c r="F24" s="28">
+        <v>1</v>
+      </c>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="25"/>
+      <c r="I24" s="24"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B25" s="28">
+      <c r="A25" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" s="26">
         <v>42796</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="25">
         <v>8</v>
       </c>
-      <c r="F25" s="30">
+      <c r="F25" s="28">
         <v>0.5</v>
       </c>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27" t="s">
+      <c r="G25" s="25"/>
+      <c r="H25" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="I25" s="25"/>
+      <c r="I25" s="24"/>
     </row>
     <row r="26" spans="1:9" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B26" s="28">
+      <c r="A26" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26" s="26">
         <v>42797</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="25">
         <v>8</v>
       </c>
-      <c r="F26" s="30">
+      <c r="F26" s="28">
         <v>0.5</v>
       </c>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27" t="s">
+      <c r="G26" s="25"/>
+      <c r="H26" s="25" t="s">
         <v>105</v>
       </c>
       <c r="I26" s="23" t="s">
@@ -3742,124 +3796,124 @@
       </c>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B27" s="28">
+      <c r="A27" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B27" s="26">
         <v>42800</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="25">
         <v>4</v>
       </c>
-      <c r="F27" s="30">
-        <v>1</v>
-      </c>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27" t="s">
+      <c r="F27" s="28">
+        <v>1</v>
+      </c>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I27" s="25"/>
+      <c r="I27" s="24"/>
     </row>
     <row r="28" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B28" s="28">
+      <c r="A28" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B28" s="26">
         <v>42800</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27" t="s">
+      <c r="C28" s="25"/>
+      <c r="D28" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="E28" s="27">
+      <c r="E28" s="25">
         <v>4</v>
       </c>
-      <c r="F28" s="30">
-        <v>1</v>
-      </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27" t="s">
+      <c r="F28" s="28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="I28" s="25"/>
+      <c r="I28" s="24"/>
     </row>
     <row r="29" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B29" s="28">
+      <c r="A29" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" s="26">
         <v>42801</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="25">
         <v>2</v>
       </c>
-      <c r="F29" s="30">
-        <v>1</v>
-      </c>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27" t="s">
+      <c r="F29" s="28">
+        <v>1</v>
+      </c>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="I29" s="25"/>
+      <c r="I29" s="24"/>
     </row>
     <row r="30" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B30" s="28">
+      <c r="A30" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B30" s="26">
         <v>42801</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E30" s="25">
         <v>2</v>
       </c>
-      <c r="F30" s="30">
-        <v>1</v>
-      </c>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27" t="s">
+      <c r="F30" s="28">
+        <v>1</v>
+      </c>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="I30" s="25"/>
+      <c r="I30" s="24"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B31" s="28">
+      <c r="A31" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="26">
         <v>42801</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E31" s="25">
         <v>4</v>
       </c>
-      <c r="F31" s="30">
-        <v>1</v>
-      </c>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27" t="s">
+      <c r="F31" s="28">
+        <v>1</v>
+      </c>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25" t="s">
         <v>8</v>
       </c>
       <c r="I31" s="23" t="s">
@@ -3867,99 +3921,99 @@
       </c>
     </row>
     <row r="32" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B32" s="28">
+      <c r="A32" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B32" s="26">
         <v>42802</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E32" s="25">
         <v>8</v>
       </c>
-      <c r="F32" s="30">
+      <c r="F32" s="28">
         <v>0.3</v>
       </c>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27" t="s">
+      <c r="G32" s="25"/>
+      <c r="H32" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="I32" s="25" t="s">
+      <c r="I32" s="24" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B33" s="28">
+      <c r="A33" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33" s="26">
         <v>42803</v>
       </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27" t="s">
+      <c r="C33" s="25"/>
+      <c r="D33" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E33" s="25">
         <v>2</v>
       </c>
-      <c r="F33" s="30">
-        <v>1</v>
-      </c>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27" t="s">
+      <c r="F33" s="28">
+        <v>1</v>
+      </c>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="I33" s="25"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B34" s="28">
+      <c r="A34" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B34" s="26">
         <v>42803</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="25">
         <v>6</v>
       </c>
-      <c r="F34" s="30">
+      <c r="F34" s="28">
         <v>0.7</v>
       </c>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27" t="s">
+      <c r="G34" s="25"/>
+      <c r="H34" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="I34" s="25"/>
-    </row>
-    <row r="35" spans="1:9" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.15">
-      <c r="A35" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B35" s="28">
+      <c r="I34" s="24"/>
+    </row>
+    <row r="35" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A35" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B35" s="26">
         <v>42804</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27" t="s">
+      <c r="C35" s="25"/>
+      <c r="D35" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="E35" s="27">
+      <c r="E35" s="25">
         <v>2</v>
       </c>
-      <c r="F35" s="30">
-        <v>1</v>
-      </c>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27" t="s">
+      <c r="F35" s="28">
+        <v>1</v>
+      </c>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25" t="s">
         <v>14</v>
       </c>
       <c r="I35" s="23" t="s">
@@ -3967,26 +4021,26 @@
       </c>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A36" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B36" s="28">
+      <c r="A36" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B36" s="26">
         <v>42804</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="D36" s="27" t="s">
+      <c r="D36" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="E36" s="27">
+      <c r="E36" s="25">
         <v>2</v>
       </c>
-      <c r="F36" s="30">
-        <v>1</v>
-      </c>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27" t="s">
+      <c r="F36" s="28">
+        <v>1</v>
+      </c>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25" t="s">
         <v>105</v>
       </c>
       <c r="I36" s="23" t="s">
@@ -3994,26 +4048,26 @@
       </c>
     </row>
     <row r="37" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A37" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B37" s="28">
+      <c r="A37" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B37" s="26">
         <v>42804</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="D37" s="27" t="s">
+      <c r="D37" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="E37" s="27">
+      <c r="E37" s="25">
         <v>4</v>
       </c>
-      <c r="F37" s="30">
-        <v>1</v>
-      </c>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27" t="s">
+      <c r="F37" s="28">
+        <v>1</v>
+      </c>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25" t="s">
         <v>105</v>
       </c>
       <c r="I37" s="23" t="s">
@@ -4021,26 +4075,26 @@
       </c>
     </row>
     <row r="38" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A38" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B38" s="28">
+      <c r="A38" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38" s="26">
         <v>42807</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="D38" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="E38" s="27">
+      <c r="E38" s="25">
         <v>8</v>
       </c>
-      <c r="F38" s="30">
-        <v>1</v>
-      </c>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27" t="s">
+      <c r="F38" s="28">
+        <v>1</v>
+      </c>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25" t="s">
         <v>105</v>
       </c>
       <c r="I38" s="23" t="s">
@@ -4048,26 +4102,26 @@
       </c>
     </row>
     <row r="39" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A39" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B39" s="28">
+      <c r="A39" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B39" s="26">
         <v>42808</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D39" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="E39" s="27">
+      <c r="E39" s="25">
         <v>5</v>
       </c>
-      <c r="F39" s="30">
-        <v>1</v>
-      </c>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27" t="s">
+      <c r="F39" s="28">
+        <v>1</v>
+      </c>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25" t="s">
         <v>105</v>
       </c>
       <c r="I39" s="23" t="s">
@@ -4075,110 +4129,110 @@
       </c>
     </row>
     <row r="40" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A40" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B40" s="28">
+      <c r="A40" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40" s="26">
         <v>42808</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="D40" s="27" t="s">
+      <c r="D40" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="E40" s="27">
-        <v>1</v>
-      </c>
-      <c r="F40" s="30">
-        <v>1</v>
-      </c>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27" t="s">
+      <c r="E40" s="25">
+        <v>1</v>
+      </c>
+      <c r="F40" s="28">
+        <v>1</v>
+      </c>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="I40" s="25"/>
+      <c r="I40" s="24"/>
     </row>
     <row r="41" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A41" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B41" s="28">
+      <c r="A41" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B41" s="26">
         <v>42808</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="E41" s="27">
+      <c r="E41" s="25">
         <v>2</v>
       </c>
-      <c r="F41" s="30">
-        <v>1</v>
-      </c>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27" t="s">
+      <c r="F41" s="28">
+        <v>1</v>
+      </c>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I41" s="25"/>
+      <c r="I41" s="24"/>
     </row>
     <row r="42" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A42" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B42" s="28">
+      <c r="A42" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B42" s="26">
         <v>42809</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="D42" s="27" t="s">
+      <c r="D42" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="E42" s="27">
+      <c r="E42" s="25">
         <v>8</v>
       </c>
-      <c r="F42" s="30">
+      <c r="F42" s="28">
         <v>0.5</v>
       </c>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27" t="s">
+      <c r="G42" s="25"/>
+      <c r="H42" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="I42" s="25"/>
+      <c r="I42" s="24"/>
     </row>
     <row r="43" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A43" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B43" s="28">
+      <c r="A43" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B43" s="26">
         <v>42810</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="E43" s="27">
+      <c r="E43" s="25">
         <v>6</v>
       </c>
-      <c r="F43" s="30">
-        <v>1</v>
-      </c>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27" t="s">
+      <c r="F43" s="28">
+        <v>1</v>
+      </c>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="I43" s="25"/>
+      <c r="I43" s="24"/>
     </row>
     <row r="44" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A44" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B44" s="31">
+      <c r="B44" s="29">
         <v>42811</v>
       </c>
       <c r="C44" s="23"/>
@@ -4188,7 +4242,7 @@
       <c r="E44" s="23">
         <v>2</v>
       </c>
-      <c r="F44" s="32">
+      <c r="F44" s="30">
         <v>1</v>
       </c>
       <c r="G44" s="23"/>
@@ -4197,11 +4251,11 @@
       </c>
       <c r="I44" s="23"/>
     </row>
-    <row r="45" spans="1:9" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A45" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B45" s="31">
+      <c r="B45" s="29">
         <v>42811</v>
       </c>
       <c r="C45" s="23" t="s">
@@ -4213,7 +4267,7 @@
       <c r="E45" s="23">
         <v>6</v>
       </c>
-      <c r="F45" s="32">
+      <c r="F45" s="30">
         <v>0.3</v>
       </c>
       <c r="G45" s="23"/>
@@ -4228,7 +4282,7 @@
       <c r="A46" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B46" s="31">
+      <c r="B46" s="29">
         <v>42814</v>
       </c>
       <c r="C46" s="23" t="s">
@@ -4240,7 +4294,7 @@
       <c r="E46" s="23">
         <v>4</v>
       </c>
-      <c r="F46" s="32">
+      <c r="F46" s="30">
         <v>1</v>
       </c>
       <c r="G46" s="23"/>
@@ -4253,7 +4307,7 @@
       <c r="A47" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B47" s="31">
+      <c r="B47" s="29">
         <v>42814</v>
       </c>
       <c r="C47" s="23" t="s">
@@ -4265,7 +4319,7 @@
       <c r="E47" s="23">
         <v>4</v>
       </c>
-      <c r="F47" s="32">
+      <c r="F47" s="30">
         <v>1</v>
       </c>
       <c r="G47" s="23"/>
@@ -4278,7 +4332,7 @@
       <c r="A48" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B48" s="31">
+      <c r="B48" s="29">
         <v>42815</v>
       </c>
       <c r="C48" s="23" t="s">
@@ -4290,7 +4344,7 @@
       <c r="E48" s="23">
         <v>8</v>
       </c>
-      <c r="F48" s="32">
+      <c r="F48" s="30">
         <v>1</v>
       </c>
       <c r="G48" s="23"/>
@@ -4303,7 +4357,7 @@
       <c r="A49" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B49" s="31">
+      <c r="B49" s="29">
         <v>42816</v>
       </c>
       <c r="C49" s="23" t="s">
@@ -4315,7 +4369,7 @@
       <c r="E49" s="23">
         <v>2</v>
       </c>
-      <c r="F49" s="32">
+      <c r="F49" s="30">
         <v>1</v>
       </c>
       <c r="G49" s="23"/>
@@ -4328,7 +4382,7 @@
       <c r="A50" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B50" s="31">
+      <c r="B50" s="29">
         <v>42816</v>
       </c>
       <c r="C50" s="23" t="s">
@@ -4340,7 +4394,7 @@
       <c r="E50" s="23">
         <v>2</v>
       </c>
-      <c r="F50" s="32">
+      <c r="F50" s="30">
         <v>1</v>
       </c>
       <c r="G50" s="23"/>
@@ -4355,7 +4409,7 @@
       <c r="A51" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B51" s="31">
+      <c r="B51" s="29">
         <v>42816</v>
       </c>
       <c r="C51" s="23" t="s">
@@ -4367,7 +4421,7 @@
       <c r="E51" s="23">
         <v>4</v>
       </c>
-      <c r="F51" s="32">
+      <c r="F51" s="30">
         <v>0.6</v>
       </c>
       <c r="G51" s="23"/>
@@ -4380,7 +4434,7 @@
       <c r="A52" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B52" s="31">
+      <c r="B52" s="29">
         <v>42817</v>
       </c>
       <c r="C52" s="23" t="s">
@@ -4392,7 +4446,7 @@
       <c r="E52" s="23">
         <v>8</v>
       </c>
-      <c r="F52" s="32">
+      <c r="F52" s="30">
         <v>1</v>
       </c>
       <c r="G52" s="23"/>
@@ -4407,7 +4461,7 @@
       <c r="A53" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B53" s="31">
+      <c r="B53" s="29">
         <v>42818</v>
       </c>
       <c r="C53" s="23" t="s">
@@ -4419,7 +4473,7 @@
       <c r="E53" s="23">
         <v>8</v>
       </c>
-      <c r="F53" s="32">
+      <c r="F53" s="30">
         <v>1</v>
       </c>
       <c r="G53" s="23"/>
@@ -4432,7 +4486,7 @@
       <c r="A54" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B54" s="31">
+      <c r="B54" s="29">
         <v>42821</v>
       </c>
       <c r="C54" s="23" t="s">
@@ -4444,7 +4498,7 @@
       <c r="E54" s="23">
         <v>8</v>
       </c>
-      <c r="F54" s="32">
+      <c r="F54" s="30">
         <v>0.5</v>
       </c>
       <c r="G54" s="23"/>
@@ -4457,7 +4511,7 @@
       <c r="A55" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B55" s="31">
+      <c r="B55" s="29">
         <v>42822</v>
       </c>
       <c r="C55" s="23" t="s">
@@ -4469,7 +4523,7 @@
       <c r="E55" s="23">
         <v>7</v>
       </c>
-      <c r="F55" s="32">
+      <c r="F55" s="30">
         <v>1</v>
       </c>
       <c r="G55" s="23"/>
@@ -4482,7 +4536,7 @@
       <c r="A56" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B56" s="31">
+      <c r="B56" s="29">
         <v>42822</v>
       </c>
       <c r="C56" s="23" t="s">
@@ -4494,7 +4548,7 @@
       <c r="E56" s="23">
         <v>1</v>
       </c>
-      <c r="F56" s="32">
+      <c r="F56" s="30">
         <v>1</v>
       </c>
       <c r="G56" s="23"/>
@@ -4507,7 +4561,7 @@
       <c r="A57" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B57" s="31">
+      <c r="B57" s="29">
         <v>42823</v>
       </c>
       <c r="C57" s="23" t="s">
@@ -4519,7 +4573,7 @@
       <c r="E57" s="23">
         <v>8</v>
       </c>
-      <c r="F57" s="32">
+      <c r="F57" s="30">
         <v>0.5</v>
       </c>
       <c r="G57" s="23"/>
@@ -4534,7 +4588,7 @@
       <c r="A58" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B58" s="31">
+      <c r="B58" s="29">
         <v>42823</v>
       </c>
       <c r="C58" s="23" t="s">
@@ -4546,7 +4600,7 @@
       <c r="E58" s="23">
         <v>8</v>
       </c>
-      <c r="F58" s="32">
+      <c r="F58" s="30">
         <v>1</v>
       </c>
       <c r="G58" s="23"/>
@@ -4561,7 +4615,7 @@
       <c r="A59" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B59" s="31">
+      <c r="B59" s="29">
         <v>42824</v>
       </c>
       <c r="C59" s="23" t="s">
@@ -4573,7 +4627,7 @@
       <c r="E59" s="23">
         <v>8</v>
       </c>
-      <c r="F59" s="32">
+      <c r="F59" s="30">
         <v>1</v>
       </c>
       <c r="G59" s="23"/>
@@ -4586,7 +4640,7 @@
       <c r="A60" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B60" s="31">
+      <c r="B60" s="29">
         <v>42825</v>
       </c>
       <c r="C60" s="23" t="s">
@@ -4598,7 +4652,7 @@
       <c r="E60" s="23">
         <v>8</v>
       </c>
-      <c r="F60" s="32">
+      <c r="F60" s="30">
         <v>1</v>
       </c>
       <c r="G60" s="23"/>
@@ -4613,7 +4667,7 @@
       <c r="A61" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B61" s="31">
+      <c r="B61" s="29">
         <v>42826</v>
       </c>
       <c r="C61" s="23" t="s">
@@ -4625,7 +4679,7 @@
       <c r="E61" s="23">
         <v>8</v>
       </c>
-      <c r="F61" s="32">
+      <c r="F61" s="30">
         <v>0.3</v>
       </c>
       <c r="G61" s="23"/>
@@ -4640,7 +4694,7 @@
       <c r="A62" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B62" s="31">
+      <c r="B62" s="29">
         <v>42828</v>
       </c>
       <c r="C62" s="23" t="s">
@@ -4652,7 +4706,7 @@
       <c r="E62" s="23">
         <v>8</v>
       </c>
-      <c r="F62" s="32">
+      <c r="F62" s="30">
         <v>1</v>
       </c>
       <c r="G62" s="23"/>
@@ -4665,7 +4719,7 @@
       <c r="A63" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B63" s="31">
+      <c r="B63" s="29">
         <v>42829</v>
       </c>
       <c r="C63" s="23" t="s">
@@ -4677,7 +4731,7 @@
       <c r="E63" s="23">
         <v>8</v>
       </c>
-      <c r="F63" s="32">
+      <c r="F63" s="30">
         <v>1</v>
       </c>
       <c r="G63" s="23"/>
@@ -4690,7 +4744,7 @@
       <c r="A64" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B64" s="31">
+      <c r="B64" s="29">
         <v>42830</v>
       </c>
       <c r="C64" s="23" t="s">
@@ -4702,7 +4756,7 @@
       <c r="E64" s="23">
         <v>7</v>
       </c>
-      <c r="F64" s="32">
+      <c r="F64" s="30">
         <v>0.6</v>
       </c>
       <c r="G64" s="23"/>
@@ -4717,7 +4771,7 @@
       <c r="A65" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B65" s="31">
+      <c r="B65" s="29">
         <v>42830</v>
       </c>
       <c r="C65" s="23" t="s">
@@ -4729,7 +4783,7 @@
       <c r="E65" s="23">
         <v>1</v>
       </c>
-      <c r="F65" s="32">
+      <c r="F65" s="30">
         <v>1</v>
       </c>
       <c r="G65" s="23"/>
@@ -4742,7 +4796,7 @@
       <c r="A66" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B66" s="31">
+      <c r="B66" s="29">
         <v>42831</v>
       </c>
       <c r="C66" s="23" t="s">
@@ -4754,7 +4808,7 @@
       <c r="E66" s="23">
         <v>8</v>
       </c>
-      <c r="F66" s="32">
+      <c r="F66" s="30">
         <v>1</v>
       </c>
       <c r="G66" s="23"/>
@@ -4769,7 +4823,7 @@
       <c r="A67" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B67" s="31">
+      <c r="B67" s="29">
         <v>42832</v>
       </c>
       <c r="C67" s="23" t="s">
@@ -4781,7 +4835,7 @@
       <c r="E67" s="23">
         <v>5</v>
       </c>
-      <c r="F67" s="32">
+      <c r="F67" s="30">
         <v>1</v>
       </c>
       <c r="G67" s="23"/>
@@ -4796,7 +4850,7 @@
       <c r="A68" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B68" s="31">
+      <c r="B68" s="29">
         <v>42832</v>
       </c>
       <c r="C68" s="23" t="s">
@@ -4808,7 +4862,7 @@
       <c r="E68" s="23">
         <v>1</v>
       </c>
-      <c r="F68" s="32">
+      <c r="F68" s="30">
         <v>1</v>
       </c>
       <c r="G68" s="23"/>
@@ -4817,30 +4871,30 @@
       </c>
       <c r="I68" s="23"/>
     </row>
-    <row r="69" spans="1:9" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A69" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="B69" s="43">
+    <row r="69" spans="1:9" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A69" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="B69" s="32">
         <v>42832</v>
       </c>
-      <c r="C69" s="42" t="s">
+      <c r="C69" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="D69" s="42" t="s">
+      <c r="D69" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="E69" s="42">
+      <c r="E69" s="31">
         <v>2</v>
       </c>
-      <c r="F69" s="44">
+      <c r="F69" s="33">
         <v>0.3</v>
       </c>
-      <c r="G69" s="42"/>
-      <c r="H69" s="42" t="s">
+      <c r="G69" s="31"/>
+      <c r="H69" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="I69" s="42" t="s">
+      <c r="I69" s="31" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4848,300 +4902,484 @@
       <c r="A70" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B70" s="31"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="32"/>
+      <c r="B70" s="29">
+        <v>42835</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="E70" s="23">
+        <v>8</v>
+      </c>
+      <c r="F70" s="30">
+        <v>0.3</v>
+      </c>
       <c r="G70" s="23"/>
-      <c r="H70" s="23"/>
+      <c r="H70" s="23" t="s">
+        <v>8</v>
+      </c>
       <c r="I70" s="23"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B71" s="31"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="32"/>
+      <c r="B71" s="29">
+        <v>42836</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D71" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="E71" s="23">
+        <v>8</v>
+      </c>
+      <c r="F71" s="30">
+        <v>0.7</v>
+      </c>
       <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
+      <c r="H71" s="23" t="s">
+        <v>8</v>
+      </c>
       <c r="I71" s="23"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B72" s="31"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="32"/>
+      <c r="B72" s="29">
+        <v>42837</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E72" s="23">
+        <v>7</v>
+      </c>
+      <c r="F72" s="30">
+        <v>1</v>
+      </c>
       <c r="G72" s="23"/>
-      <c r="H72" s="23"/>
+      <c r="H72" s="23" t="s">
+        <v>8</v>
+      </c>
       <c r="I72" s="23"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A73" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B73" s="31"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="32"/>
+      <c r="B73" s="29">
+        <v>42837</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D73" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="E73" s="23">
+        <v>1</v>
+      </c>
+      <c r="F73" s="30">
+        <v>1</v>
+      </c>
       <c r="G73" s="23"/>
-      <c r="H73" s="23"/>
+      <c r="H73" s="23" t="s">
+        <v>86</v>
+      </c>
       <c r="I73" s="23"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A74" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B74" s="31"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="32"/>
+      <c r="B74" s="29">
+        <v>42838</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D74" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="E74" s="23">
+        <v>7</v>
+      </c>
+      <c r="F74" s="30">
+        <v>0.5</v>
+      </c>
       <c r="G74" s="23"/>
-      <c r="H74" s="23"/>
+      <c r="H74" s="23" t="s">
+        <v>8</v>
+      </c>
       <c r="I74" s="23"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B75" s="31"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="32"/>
+      <c r="B75" s="29">
+        <v>42838</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D75" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="E75" s="23">
+        <v>1</v>
+      </c>
+      <c r="F75" s="30">
+        <v>1</v>
+      </c>
       <c r="G75" s="23"/>
-      <c r="H75" s="23"/>
+      <c r="H75" s="23" t="s">
+        <v>11</v>
+      </c>
       <c r="I75" s="23"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B76" s="31"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="32"/>
+      <c r="B76" s="29">
+        <v>42839</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D76" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="E76" s="23">
+        <v>3</v>
+      </c>
+      <c r="F76" s="30">
+        <v>0.9</v>
+      </c>
       <c r="G76" s="23"/>
-      <c r="H76" s="23"/>
+      <c r="H76" s="23" t="s">
+        <v>8</v>
+      </c>
       <c r="I76" s="23"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A77" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B77" s="31"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="32"/>
+      <c r="B77" s="29">
+        <v>42839</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D77" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="E77" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="F77" s="30">
+        <v>1</v>
+      </c>
       <c r="G77" s="23"/>
-      <c r="H77" s="23"/>
-      <c r="I77" s="23"/>
+      <c r="H77" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I77" s="23" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A78" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B78" s="31"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="32"/>
+      <c r="B78" s="29">
+        <v>42839</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D78" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="E78" s="23">
+        <v>2.5</v>
+      </c>
+      <c r="F78" s="30">
+        <v>0.2</v>
+      </c>
       <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
+      <c r="H78" s="23" t="s">
+        <v>8</v>
+      </c>
       <c r="I78" s="23"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A79" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B79" s="31"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="32"/>
+      <c r="B79" s="29">
+        <v>42839</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D79" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="E79" s="23">
+        <v>2</v>
+      </c>
+      <c r="F79" s="30">
+        <v>1</v>
+      </c>
       <c r="G79" s="23"/>
-      <c r="H79" s="23"/>
+      <c r="H79" s="23" t="s">
+        <v>174</v>
+      </c>
       <c r="I79" s="23"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A80" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B80" s="31"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="32"/>
+      <c r="B80" s="29">
+        <v>42842</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D80" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="E80" s="23">
+        <v>8</v>
+      </c>
+      <c r="F80" s="30">
+        <v>0.8</v>
+      </c>
       <c r="G80" s="23"/>
-      <c r="H80" s="23"/>
+      <c r="H80" s="23" t="s">
+        <v>8</v>
+      </c>
       <c r="I80" s="23"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B81" s="31"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="32"/>
+      <c r="B81" s="29">
+        <v>42843</v>
+      </c>
+      <c r="C81" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D81" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="E81" s="23">
+        <v>2</v>
+      </c>
+      <c r="F81" s="30">
+        <v>1</v>
+      </c>
       <c r="G81" s="23"/>
-      <c r="H81" s="23"/>
+      <c r="H81" s="23" t="s">
+        <v>174</v>
+      </c>
       <c r="I81" s="23"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B82" s="31"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="32"/>
+      <c r="B82" s="29">
+        <v>42843</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D82" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="E82" s="23">
+        <v>4</v>
+      </c>
+      <c r="F82" s="30">
+        <v>1</v>
+      </c>
       <c r="G82" s="23"/>
-      <c r="H82" s="23"/>
+      <c r="H82" s="23" t="s">
+        <v>8</v>
+      </c>
       <c r="I82" s="23"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B83" s="24"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="25"/>
-      <c r="H83" s="25"/>
-      <c r="I83" s="25"/>
+      <c r="B83" s="29">
+        <v>42843</v>
+      </c>
+      <c r="C83" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D83" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="E83" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="F83" s="30">
+        <v>1</v>
+      </c>
+      <c r="G83" s="23"/>
+      <c r="H83" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I83" s="23"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B84" s="24"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
+      <c r="B84" s="29">
+        <v>42843</v>
+      </c>
+      <c r="C84" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D84" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="E84" s="23">
+        <v>1</v>
+      </c>
+      <c r="F84" s="30">
+        <v>1</v>
+      </c>
+      <c r="G84" s="23"/>
+      <c r="H84" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I84" s="23" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B85" s="24"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="26"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="23"/>
+      <c r="I85" s="23"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B86" s="24"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="25"/>
-      <c r="E86" s="25"/>
-      <c r="F86" s="26"/>
-      <c r="G86" s="25"/>
-      <c r="H86" s="25"/>
-      <c r="I86" s="25"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="30"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="23"/>
+      <c r="I86" s="23"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B87" s="24"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="30"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="23"/>
+      <c r="I87" s="23"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B88" s="24"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="26"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="30"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="23"/>
+      <c r="I88" s="23"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A89" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B89" s="24"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="25"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="26"/>
-      <c r="G89" s="25"/>
-      <c r="H89" s="25"/>
-      <c r="I89" s="25"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="30"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="23"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B90" s="24"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="25"/>
-      <c r="F90" s="26"/>
-      <c r="G90" s="25"/>
-      <c r="H90" s="25"/>
-      <c r="I90" s="25"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="23"/>
+      <c r="I90" s="23"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B91" s="24"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="25"/>
-      <c r="E91" s="25"/>
-      <c r="F91" s="26"/>
-      <c r="G91" s="25"/>
-      <c r="H91" s="25"/>
-      <c r="I91" s="25"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="30"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="23"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B92" s="24"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="25"/>
-      <c r="H92" s="25"/>
-      <c r="I92" s="25"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="30"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="23"/>
+      <c r="I92" s="23"/>
       <c r="J92">
         <f>224/8</f>
         <v>28</v>
@@ -5210,7 +5448,7 @@
       <c r="B1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="41" t="s">
         <v>180</v>
       </c>
     </row>
@@ -5221,58 +5459,58 @@
       <c r="B2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="37"/>
+      <c r="D2" s="42"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="35" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="37"/>
+      <c r="D3" s="42"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="34"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="37"/>
+      <c r="D4" s="42"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="34"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="37"/>
+      <c r="D5" s="42"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="34"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="37"/>
+      <c r="D6" s="42"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="34"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="37"/>
+      <c r="D7" s="42"/>
     </row>
     <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="34"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="37"/>
+      <c r="D8" s="42"/>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="37"/>
+      <c r="D9" s="42"/>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
@@ -5281,95 +5519,95 @@
       <c r="B10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="37"/>
+      <c r="D10" s="42"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="35" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="37"/>
+      <c r="D11" s="42"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="34"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="37"/>
+      <c r="D12" s="42"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="34"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="37"/>
+      <c r="D13" s="42"/>
     </row>
     <row r="14" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="37"/>
+      <c r="D14" s="42"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="35" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="37"/>
+      <c r="D15" s="42"/>
     </row>
     <row r="16" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="37"/>
+      <c r="D16" s="42"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="35" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="38"/>
+      <c r="D17" s="43"/>
     </row>
     <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="34"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="34"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="34"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="34"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="34"/>
+      <c r="A22" s="36"/>
       <c r="B22" s="15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="35"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="11" t="s">
         <v>47</v>
       </c>
@@ -5383,7 +5621,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="35" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="13" t="s">
@@ -5391,19 +5629,19 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="34"/>
+      <c r="A26" s="36"/>
       <c r="B26" s="13" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="35"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="35" t="s">
         <v>15</v>
       </c>
       <c r="B28" s="13" t="s">
@@ -5411,13 +5649,13 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="35"/>
+      <c r="A29" s="37"/>
       <c r="B29" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="35" t="s">
         <v>55</v>
       </c>
       <c r="B30" s="13" t="s">
@@ -5425,13 +5663,13 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="35"/>
+      <c r="A31" s="37"/>
       <c r="B31" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="13" t="s">
@@ -5439,25 +5677,25 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="34"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A34" s="34"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="35"/>
+      <c r="A35" s="37"/>
       <c r="B35" s="14" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="35" t="s">
         <v>9</v>
       </c>
       <c r="B36" s="13" t="s">
@@ -5465,25 +5703,25 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="34"/>
+      <c r="A37" s="36"/>
       <c r="B37" s="13" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="34"/>
+      <c r="A38" s="36"/>
       <c r="B38" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="35"/>
+      <c r="A39" s="37"/>
       <c r="B39" s="14" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="35" t="s">
         <v>66</v>
       </c>
       <c r="B40" s="13" t="s">
@@ -5491,13 +5729,13 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="35"/>
+      <c r="A41" s="37"/>
       <c r="B41" s="14" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="38" t="s">
         <v>69</v>
       </c>
       <c r="B42" s="13" t="s">
@@ -5505,37 +5743,37 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="41"/>
+      <c r="A43" s="39"/>
       <c r="B43" s="13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="41"/>
+      <c r="A44" s="39"/>
       <c r="B44" s="13" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="41"/>
+      <c r="A45" s="39"/>
       <c r="B45" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="41"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="41"/>
+      <c r="A47" s="39"/>
       <c r="B47" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="41"/>
+      <c r="A48" s="39"/>
       <c r="B48" s="13" t="s">
         <v>76</v>
       </c>
@@ -5563,7 +5801,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="33" t="s">
+      <c r="A52" s="35" t="s">
         <v>82</v>
       </c>
       <c r="B52" s="13" t="s">
@@ -5571,13 +5809,13 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="34"/>
+      <c r="A53" s="36"/>
       <c r="B53" s="13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="35"/>
+      <c r="A54" s="37"/>
       <c r="B54" s="14" t="s">
         <v>85</v>
       </c>
@@ -5599,7 +5837,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A57" s="33" t="s">
+      <c r="A57" s="35" t="s">
         <v>90</v>
       </c>
       <c r="B57" s="13" t="s">
@@ -5607,13 +5845,13 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A58" s="34"/>
+      <c r="A58" s="36"/>
       <c r="B58" s="13" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="35"/>
+      <c r="A59" s="37"/>
       <c r="B59" s="14" t="s">
         <v>93</v>
       </c>
@@ -5627,7 +5865,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="33" t="s">
+      <c r="A61" s="35" t="s">
         <v>96</v>
       </c>
       <c r="B61" s="13" t="s">
@@ -5635,19 +5873,19 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="34"/>
+      <c r="A62" s="36"/>
       <c r="B62" s="13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" s="34"/>
+      <c r="A63" s="36"/>
       <c r="B63" s="13" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="35"/>
+      <c r="A64" s="37"/>
       <c r="B64" s="14" t="s">
         <v>98</v>
       </c>
@@ -5677,7 +5915,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A68" s="33" t="s">
+      <c r="A68" s="35" t="s">
         <v>105</v>
       </c>
       <c r="B68" s="13" t="s">
@@ -5685,13 +5923,13 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="35"/>
+      <c r="A69" s="37"/>
       <c r="B69" s="16" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A70" s="33" t="s">
+      <c r="A70" s="35" t="s">
         <v>108</v>
       </c>
       <c r="B70" s="13" t="s">
@@ -5699,13 +5937,13 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A71" s="34"/>
+      <c r="A71" s="36"/>
       <c r="B71" s="13" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="35"/>
+      <c r="A72" s="37"/>
       <c r="B72" s="14" t="s">
         <v>111</v>
       </c>
@@ -5719,7 +5957,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A74" s="33" t="s">
+      <c r="A74" s="35" t="s">
         <v>112</v>
       </c>
       <c r="B74" s="17" t="s">
@@ -5727,7 +5965,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="35"/>
+      <c r="A75" s="37"/>
       <c r="B75" s="16" t="s">
         <v>114</v>
       </c>
@@ -5741,7 +5979,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A77" s="39" t="s">
+      <c r="A77" s="38" t="s">
         <v>117</v>
       </c>
       <c r="B77" s="17" t="s">
@@ -5755,7 +5993,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A79" s="33" t="s">
+      <c r="A79" s="35" t="s">
         <v>21</v>
       </c>
       <c r="B79" s="13" t="s">
@@ -5763,61 +6001,61 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A80" s="34"/>
+      <c r="A80" s="36"/>
       <c r="B80" s="13" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A81" s="34"/>
+      <c r="A81" s="36"/>
       <c r="B81" s="13" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A82" s="34"/>
+      <c r="A82" s="36"/>
       <c r="B82" s="13" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A83" s="34"/>
+      <c r="A83" s="36"/>
       <c r="B83" s="13" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A84" s="34"/>
+      <c r="A84" s="36"/>
       <c r="B84" s="13" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A85" s="34"/>
+      <c r="A85" s="36"/>
       <c r="B85" s="13" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A86" s="34"/>
+      <c r="A86" s="36"/>
       <c r="B86" s="13" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A87" s="34"/>
+      <c r="A87" s="36"/>
       <c r="B87" s="13" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="35"/>
+      <c r="A88" s="37"/>
       <c r="B88" s="14" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A89" s="33" t="s">
+      <c r="A89" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B89" s="13" t="s">
@@ -5825,31 +6063,31 @@
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A90" s="34"/>
+      <c r="A90" s="36"/>
       <c r="B90" s="13" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A91" s="34"/>
+      <c r="A91" s="36"/>
       <c r="B91" s="13" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A92" s="34"/>
+      <c r="A92" s="36"/>
       <c r="B92" s="13" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A93" s="34"/>
+      <c r="A93" s="36"/>
       <c r="B93" s="13" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="35"/>
+      <c r="A94" s="37"/>
       <c r="B94" s="14" t="s">
         <v>135</v>
       </c>
@@ -5863,7 +6101,7 @@
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A96" s="33" t="s">
+      <c r="A96" s="35" t="s">
         <v>19</v>
       </c>
       <c r="B96" s="13" t="s">
@@ -5871,49 +6109,49 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A97" s="34"/>
+      <c r="A97" s="36"/>
       <c r="B97" s="13" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A98" s="34"/>
+      <c r="A98" s="36"/>
       <c r="B98" s="13" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A99" s="34"/>
+      <c r="A99" s="36"/>
       <c r="B99" s="13" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A100" s="34"/>
+      <c r="A100" s="36"/>
       <c r="B100" s="13" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A101" s="34"/>
+      <c r="A101" s="36"/>
       <c r="B101" s="13" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A102" s="34"/>
+      <c r="A102" s="36"/>
       <c r="B102" s="13" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="35"/>
+      <c r="A103" s="37"/>
       <c r="B103" s="14" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="33" t="s">
+      <c r="A104" s="35" t="s">
         <v>146</v>
       </c>
       <c r="B104" s="12" t="s">
@@ -5921,67 +6159,67 @@
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A105" s="34"/>
+      <c r="A105" s="36"/>
       <c r="B105" s="18" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A106" s="34"/>
+      <c r="A106" s="36"/>
       <c r="B106" s="18" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A107" s="34"/>
+      <c r="A107" s="36"/>
       <c r="B107" s="18" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A108" s="34"/>
+      <c r="A108" s="36"/>
       <c r="B108" s="19" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A109" s="34"/>
+      <c r="A109" s="36"/>
       <c r="B109" s="18" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A110" s="34"/>
+      <c r="A110" s="36"/>
       <c r="B110" s="19" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A111" s="34"/>
+      <c r="A111" s="36"/>
       <c r="B111" s="18" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A112" s="34"/>
+      <c r="A112" s="36"/>
       <c r="B112" s="18" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A113" s="34"/>
+      <c r="A113" s="36"/>
       <c r="B113" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="35"/>
+      <c r="A114" s="37"/>
       <c r="B114" s="20" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A115" s="33" t="s">
+      <c r="A115" s="35" t="s">
         <v>158</v>
       </c>
       <c r="B115" s="13" t="s">
@@ -5989,7 +6227,7 @@
       </c>
     </row>
     <row r="116" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="35"/>
+      <c r="A116" s="37"/>
       <c r="B116" s="14" t="s">
         <v>77</v>
       </c>
@@ -6003,7 +6241,7 @@
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A118" s="33" t="s">
+      <c r="A118" s="35" t="s">
         <v>161</v>
       </c>
       <c r="B118" s="13" t="s">
@@ -6011,13 +6249,13 @@
       </c>
     </row>
     <row r="119" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="35"/>
+      <c r="A119" s="37"/>
       <c r="B119" s="14" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A120" s="33" t="s">
+      <c r="A120" s="35" t="s">
         <v>164</v>
       </c>
       <c r="B120" s="13" t="s">
@@ -6025,19 +6263,19 @@
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A121" s="34"/>
+      <c r="A121" s="36"/>
       <c r="B121" s="13" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="35"/>
+      <c r="A122" s="37"/>
       <c r="B122" s="14" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A123" s="33" t="s">
+      <c r="A123" s="35" t="s">
         <v>168</v>
       </c>
       <c r="B123" s="13" t="s">
@@ -6045,25 +6283,25 @@
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A124" s="34"/>
+      <c r="A124" s="36"/>
       <c r="B124" s="13" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A125" s="34"/>
+      <c r="A125" s="36"/>
       <c r="B125" s="13" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A126" s="34"/>
+      <c r="A126" s="36"/>
       <c r="B126" s="13" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="35"/>
+      <c r="A127" s="37"/>
       <c r="B127" s="14" t="s">
         <v>173</v>
       </c>
@@ -6077,7 +6315,7 @@
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A129" s="33" t="s">
+      <c r="A129" s="35" t="s">
         <v>14</v>
       </c>
       <c r="B129" s="8" t="s">
@@ -6085,13 +6323,13 @@
       </c>
     </row>
     <row r="130" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A130" s="34"/>
+      <c r="A130" s="36"/>
       <c r="B130" s="8" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="35"/>
+      <c r="A131" s="37"/>
       <c r="B131" s="12" t="s">
         <v>178</v>
       </c>
@@ -6104,18 +6342,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A49"/>
     <mergeCell ref="A120:A122"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="A129:A131"/>
@@ -6132,6 +6358,18 @@
     <mergeCell ref="A70:A72"/>
     <mergeCell ref="A74:A75"/>
     <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A49"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
